--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Tarea Info\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED500BAF-ECF0-4F19-9247-34B058C30964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C55754-9D36-470B-8C0D-1B6D209083C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Lunes</t>
   </si>
@@ -46,6 +46,45 @@
   </si>
   <si>
     <t>Domingo</t>
+  </si>
+  <si>
+    <t>Arreglarse</t>
+  </si>
+  <si>
+    <t>Desayunar</t>
+  </si>
+  <si>
+    <t>Referenciacion Geografica</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>Fís. De Ondas y Moderna</t>
+  </si>
+  <si>
+    <t>Física de Campos</t>
+  </si>
+  <si>
+    <t>Informatica II</t>
+  </si>
+  <si>
+    <t>Circuitos Electricos</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Repaso</t>
+  </si>
+  <si>
+    <t>Trabajos</t>
+  </si>
+  <si>
+    <t>Polivalente</t>
   </si>
 </sst>
 </file>
@@ -69,15 +108,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB482D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,24 +176,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB482D2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,343 +556,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="I4:Q29"/>
+  <dimension ref="C4:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="J5" s="2" t="s">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="3">
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16">
         <v>0.25</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="3">
+      <c r="J6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16">
         <v>0.29166666666666702</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I8" s="3">
+      <c r="J7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I9" s="3">
+      <c r="J8" s="14"/>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16">
         <v>0.375</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I10" s="3">
+      <c r="J9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I11" s="3">
+      <c r="J10" s="21"/>
+      <c r="K10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16">
         <v>0.45833333333333298</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I12" s="3">
+      <c r="J11" s="23"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16">
         <v>0.5</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="3">
+      <c r="J12" s="23"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="3">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="3">
+      <c r="J14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16">
         <v>0.625</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="3">
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="3">
+      <c r="J16" s="6"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16">
         <v>0.70833333333333304</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="3">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16">
         <v>0.75</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I19" s="3">
+      <c r="J18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16">
         <v>0.79166666666666696</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="3">
+      <c r="J19" s="21"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="3">
+      <c r="J20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16">
         <v>0.875</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="3">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:E21"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="D16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="K14:K15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Tarea Info\Tarea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C55754-9D36-470B-8C0D-1B6D209083C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6FE97-5504-4CF8-BC47-EF435700DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>Lunes</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Polivalente</t>
+  </si>
+  <si>
+    <t>Almuerzo</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Comida</t>
   </si>
 </sst>
 </file>
@@ -108,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,71 +219,98 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +601,7 @@
   <dimension ref="C4:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,500 +612,530 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="13" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
         <v>0.25</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
         <v>0.29166666666666702</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
+      <c r="C8" s="8"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
         <v>0.33333333333333298</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="25"/>
+      <c r="M8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16">
+      <c r="C9" s="8"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
         <v>0.375</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="19" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="4" t="s">
+      <c r="M10" s="3"/>
+      <c r="N10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="14"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16">
+      <c r="C11" s="9"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
         <v>0.45833333333333298</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="23"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="23"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16">
+      <c r="C12" s="9"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6">
         <v>0.5</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
         <v>0.54166666666666696</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="J13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16">
+      <c r="C14" s="8"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
         <v>0.58333333333333304</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16">
+      <c r="C15" s="8"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
         <v>0.625</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="14"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6">
         <v>0.66666666666666696</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="19" t="s">
+      <c r="J16" s="20"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16">
+      <c r="C17" s="8"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
         <v>0.70833333333333304</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="20"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16">
+      <c r="C18" s="8"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
         <v>0.75</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="21"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6">
         <v>0.79166666666666696</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="14"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
         <v>0.83333333333333304</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="J20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="31" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
         <v>0.875</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16">
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6">
         <v>0.91666666666666696</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
@@ -1076,7 +1148,42 @@
       <c r="I29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="51">
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="D13:E15"/>
+    <mergeCell ref="D16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:E21"/>
     <mergeCell ref="P16:P18"/>
@@ -1093,21 +1200,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:E12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:E15"/>
-    <mergeCell ref="D16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="K14:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
